--- a/experiment result/64_0.5_40_zs20_kappa_lp.xlsx
+++ b/experiment result/64_0.5_40_zs20_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02707181670442559</v>
+        <v>0.001966481099156566</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04905405793318075</v>
+        <v>0.003733512774669207</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.04012280622052793</v>
+        <v>0.002921336593664679</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.055929556533747</v>
+        <v>0.005827741726799967</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03456971251823775</v>
+        <v>0.002619226429508007</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04450610721481036</v>
+        <v>0.004085416296287119</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04404795269509728</v>
+        <v>0.004179529796501406</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03818459796554535</v>
+        <v>0.01385805696179378</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.04261812801473022</v>
+        <v>0.004670946803608689</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05769625115513034</v>
+        <v>0.01920913652240944</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.04643208175371856</v>
+        <v>0.0111522448630071</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.076266116153084</v>
+        <v>0.03325198164898486</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.03773634527106852</v>
+        <v>0.002820915536526743</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05412954877167943</v>
+        <v>0.003276365671503514</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.04216994705405304</v>
+        <v>0.004903973217295333</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06415349845798071</v>
+        <v>0.008087725412052526</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.08100277774846183</v>
+        <v>0.01538639567194407</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.02940302267209576</v>
+        <v>0.001575591346243506</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.04390076982322114</v>
+        <v>0.006609276762719341</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05358988120015497</v>
+        <v>0.004033531078374933</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.02977642125219501</v>
+        <v>0.005137912496088478</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0359162425912371</v>
+        <v>0.003179155814311895</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.06724717231032598</v>
+        <v>0.01015959290309416</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02409738945038906</v>
+        <v>0.003164908649942784</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01526833707428329</v>
+        <v>0.002198344756823309</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0523158496664546</v>
+        <v>0.005577553183641434</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.03382798336678774</v>
+        <v>0.00458738058740346</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05819685310324942</v>
+        <v>0.01509906919712567</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0316306564423948</v>
+        <v>0.004543177307089297</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0598827909278777</v>
+        <v>0.01645569521810779</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02222670809449936</v>
+        <v>0.00189360634016248</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.03305622847556769</v>
+        <v>0.002489509483485522</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06714076099610602</v>
+        <v>0.00507164923407005</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02490742137283914</v>
+        <v>0.001163057783737443</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.03224892735824066</v>
+        <v>0.005808254031238788</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.04292669298928821</v>
+        <v>0.004060970842492113</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0256698141331334</v>
+        <v>0.002233081782768401</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.04575871891000512</v>
+        <v>0.003770175150217435</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.02305795642799934</v>
+        <v>0.004283841973178724</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.06171293234449134</v>
+        <v>0.03827659561449624</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.06148253180765226</v>
+        <v>0.01019982271743397</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.02922201191505269</v>
+        <v>0.01078864723204994</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02943387947335622</v>
+        <v>0.002595035778848829</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.03099815472677434</v>
+        <v>0.003649824351987715</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.03284180229918122</v>
+        <v>0.0083422784267726</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.05576877383582847</v>
+        <v>0.005655426605604191</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.05466778794906378</v>
+        <v>0.01299366236521381</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02307929137262062</v>
+        <v>0.0008664606836455143</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.05908032313452316</v>
+        <v>0.004716240468312053</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0283794757083513</v>
+        <v>0.0007427373702183339</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.04672216495165692</v>
+        <v>0.005085350721514023</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.04587712603563683</v>
+        <v>0.004414094062318319</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01244751973122258</v>
+        <v>0.0001669458319064683</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01767757127208177</v>
+        <v>0.0009083297756507065</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.03301193605970449</v>
+        <v>0.005076600931249032</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.05446151467961863</v>
+        <v>0.005878582337751717</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.04116909423728193</v>
+        <v>0.002123351309136619</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.04546120687016362</v>
+        <v>0.003648669890718335</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.04803838917457869</v>
+        <v>0.007432796423727195</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.03509131347146258</v>
+        <v>0.002655318031458509</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.009494254165604964</v>
+        <v>0.0002931632387931547</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.02650353669086396</v>
+        <v>0.004736755898328738</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.03936381880571119</v>
+        <v>0.004431418851918966</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02127241350908664</v>
+        <v>0.0007710345298063243</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.05596139397693659</v>
+        <v>0.01870567451641207</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.05532674924657162</v>
+        <v>0.007142325696455098</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.03211731400588738</v>
+        <v>0.005958617667302818</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.02942992526323625</v>
+        <v>0.002388821709137649</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0234479124763062</v>
+        <v>0.001195691220973775</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.01981506657470923</v>
+        <v>0.0020010100305683</v>
       </c>
     </row>
   </sheetData>
